--- a/calculating_power_excel/results/Power_already_existing_nuclear_KW.xlsx
+++ b/calculating_power_excel/results/Power_already_existing_nuclear_KW.xlsx
@@ -56,7 +56,7 @@
   <dimension ref="A1:A8784"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="true"/>
+    <col min="1" max="1" width="8.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
